--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agt-Agtr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agt-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.174539</v>
+        <v>0.1214023333333333</v>
       </c>
       <c r="H2">
-        <v>0.523617</v>
+        <v>0.364207</v>
       </c>
       <c r="I2">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="J2">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,33 +558,33 @@
         <v>2.916421</v>
       </c>
       <c r="O2">
-        <v>0.4203533802573702</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.4203533802573702</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1696764016396667</v>
+        <v>0.1180201047941111</v>
       </c>
       <c r="R2">
-        <v>1.527087614757</v>
+        <v>1.062180943147</v>
       </c>
       <c r="S2">
-        <v>0.1020456855152692</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="T2">
-        <v>0.1020456855152692</v>
+        <v>0.2856182748266287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,54 +602,54 @@
         <v>0.523617</v>
       </c>
       <c r="I3">
-        <v>0.2427616627057681</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="J3">
-        <v>0.2427616627057681</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1.340533666666667</v>
+        <v>0.9721403333333333</v>
       </c>
       <c r="N3">
-        <v>4.021601</v>
+        <v>2.916421</v>
       </c>
       <c r="O3">
-        <v>0.5796466197426298</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.5796466197426298</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.2339754056463333</v>
+        <v>0.1696764016396667</v>
       </c>
       <c r="R3">
-        <v>2.105778650817</v>
+        <v>1.527087614757</v>
       </c>
       <c r="S3">
-        <v>0.1407159771904989</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="T3">
-        <v>0.1407159771904989</v>
+        <v>0.4106307243130825</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -655,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5444336666666667</v>
+        <v>0.1291096666666667</v>
       </c>
       <c r="H4">
-        <v>1.633301</v>
+        <v>0.387329</v>
       </c>
       <c r="I4">
-        <v>0.7572383372942318</v>
+        <v>0.3037510008602889</v>
       </c>
       <c r="J4">
-        <v>0.7572383372942318</v>
+        <v>0.3037510008602889</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,84 +682,22 @@
         <v>2.916421</v>
       </c>
       <c r="O4">
-        <v>0.4203533802573702</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.4203533802573702</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.5292659261912223</v>
+        <v>0.1255127143898889</v>
       </c>
       <c r="R4">
-        <v>4.763393335721</v>
+        <v>1.129614429509</v>
       </c>
       <c r="S4">
-        <v>0.318307694742101</v>
+        <v>0.3037510008602889</v>
       </c>
       <c r="T4">
-        <v>0.318307694742101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.5444336666666667</v>
-      </c>
-      <c r="H5">
-        <v>1.633301</v>
-      </c>
-      <c r="I5">
-        <v>0.7572383372942318</v>
-      </c>
-      <c r="J5">
-        <v>0.7572383372942318</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>1.340533666666667</v>
-      </c>
-      <c r="N5">
-        <v>4.021601</v>
-      </c>
-      <c r="O5">
-        <v>0.5796466197426298</v>
-      </c>
-      <c r="P5">
-        <v>0.5796466197426298</v>
-      </c>
-      <c r="Q5">
-        <v>0.7298316594334444</v>
-      </c>
-      <c r="R5">
-        <v>6.568484934901</v>
-      </c>
-      <c r="S5">
-        <v>0.4389306425521308</v>
-      </c>
-      <c r="T5">
-        <v>0.4389306425521308</v>
+        <v>0.3037510008602889</v>
       </c>
     </row>
   </sheetData>
